--- a/ResultadoEleicoesDistritos/R. A. AÇORES_RIBEIRA GRANDE.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. AÇORES_RIBEIRA GRANDE.xlsx
@@ -597,64 +597,64 @@
         <v>8679</v>
       </c>
       <c r="H2" t="n">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="I2" t="n">
-        <v>866</v>
+        <v>899</v>
       </c>
       <c r="J2" t="n">
-        <v>3530</v>
+        <v>3599</v>
       </c>
       <c r="K2" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="M2" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="N2" t="n">
-        <v>637</v>
+        <v>620</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="n">
         <v>8</v>
       </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
       <c r="R2" t="n">
+        <v>65</v>
+      </c>
+      <c r="S2" t="n">
+        <v>382</v>
+      </c>
+      <c r="T2" t="n">
+        <v>655</v>
+      </c>
+      <c r="U2" t="n">
         <v>44</v>
       </c>
-      <c r="S2" t="n">
-        <v>364</v>
-      </c>
-      <c r="T2" t="n">
-        <v>614</v>
-      </c>
-      <c r="U2" t="n">
-        <v>53</v>
-      </c>
       <c r="V2" t="n">
-        <v>5459</v>
+        <v>5453</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>5693</v>
+        <v>5505</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AA2" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
